--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1929713.473498039</v>
+        <v>-1931663.699326599</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>363.8739475149338</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48.51215420559307</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>254.1066603134097</v>
+        <v>94.09244749154638</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.69402002676135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>230.266664041715</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.9235944250651</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>24.05696454450569</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>95.29787616176765</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.94454531968526</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>8.533630395140106</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>82.40822752603266</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.22403364383357</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>53.76660054227064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>24.89268588222698</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>195.763265749376</v>
+        <v>68.41712019064312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>216.4586446023289</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>249.8755219314434</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>144.425433495909</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>77.09075258260994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463054</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224533</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1608.707835252812</v>
+        <v>1829.414797886936</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1829.414797886936</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1471.149099280185</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1085.360846681941</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>674.3749418923335</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4111337905204</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4364,16 +4364,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2385.447007292746</v>
+        <v>2216.014637951057</v>
       </c>
       <c r="X2" t="n">
-        <v>2385.447007292746</v>
+        <v>2216.014637951057</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.307675316934</v>
+        <v>2216.014637951057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.619613065019</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>195.250031532787</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>195.250031532787</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>195.250031532787</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>195.250031532787</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>2250.268077895259</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>2250.268077895259</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>2250.268077895259</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455193</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1379.317669514782</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1021.051970908031</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2672.849126831853</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2454.214459803916</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2454.214459803916</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2123.151572460345</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2123.151572460345</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.7554128984182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C7" t="n">
-        <v>289.7554128984182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>289.7554128984182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>289.7554128984182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>289.7554128984182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>120.7556126367506</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286579</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1189.50268270914</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>820.540165768728</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>462.2744671619775</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>76.48621456373326</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4835,19 +4835,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1576.102522773261</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y8" t="n">
-        <v>1576.102522773261</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,49 +4881,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>898.5039869983195</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C13" t="n">
-        <v>729.5678040704126</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D13" t="n">
-        <v>729.5678040704126</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E13" t="n">
-        <v>581.6547104880195</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>272.7792270661072</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983195</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>898.5039869983195</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.5039869983195</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822454</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5467,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>766.3950693506686</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="V16" t="n">
-        <v>766.3950693506686</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="W16" t="n">
-        <v>766.3950693506686</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3950693506686</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3950693506686</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.271174999994</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>991.1425362135525</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>736.4580480076656</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>447.040877970705</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>911.6562348067655</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>656.9717466008786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>656.9717466008786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X22" t="n">
-        <v>428.9821957028613</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1421.046823504761</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1193.057272606744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083196</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7831,13 +7831,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.398944256073736</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>255.1485212258666</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>72.61578223228956</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.25633429487596</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>91.65444748066059</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.6008825811506</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238294</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>90.4740866492013</v>
+        <v>217.8202322079342</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.088916456060332</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>36.36183046713398</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>81.28422189312812</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>209.4322457539811</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1324130.27431121</v>
+        <v>1324130.274311211</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262557</v>
+        <v>58099.54682262556</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
         <v>58654.3589606563</v>
@@ -26332,22 +26332,22 @@
         <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982128</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982128</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26445,19 +26445,19 @@
         <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,22 +26488,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753887.4474275802</v>
+        <v>-754003.4002914869</v>
       </c>
       <c r="C6" t="n">
         <v>-186913.8131101126</v>
@@ -26528,40 +26528,40 @@
         <v>-186913.8131101126</v>
       </c>
       <c r="E6" t="n">
-        <v>-580667.6110518272</v>
+        <v>-580765.0701777992</v>
       </c>
       <c r="F6" t="n">
-        <v>-55507.57457493106</v>
+        <v>-55605.03370090319</v>
       </c>
       <c r="G6" t="n">
-        <v>-55507.57457493105</v>
+        <v>-55605.0337009032</v>
       </c>
       <c r="H6" t="n">
-        <v>-55507.57457493104</v>
+        <v>-55605.03370090316</v>
       </c>
       <c r="I6" t="n">
-        <v>-55507.57457493106</v>
+        <v>-55605.0337009032</v>
       </c>
       <c r="J6" t="n">
-        <v>-311659.0992047007</v>
+        <v>-311659.0992047008</v>
       </c>
       <c r="K6" t="n">
-        <v>-80730.36790839527</v>
+        <v>-80730.3679083953</v>
       </c>
       <c r="L6" t="n">
         <v>-80730.3679083953</v>
       </c>
       <c r="M6" t="n">
-        <v>-215531.3831422325</v>
+        <v>-215531.3831422324</v>
       </c>
       <c r="N6" t="n">
-        <v>-80730.36790839533</v>
+        <v>-80730.3679083953</v>
       </c>
       <c r="O6" t="n">
-        <v>-135235.8800121078</v>
+        <v>-135235.8800121079</v>
       </c>
       <c r="P6" t="n">
-        <v>-80730.36790839532</v>
+        <v>-80730.3679083953</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,13 +26765,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>275.4106185587641</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>95.13430840400326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.0067756471967</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.3587482644658</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>71.94894493686019</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>135.2263435221099</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>398.3424153465713</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>303.8297111300209</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.2989646927574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973758</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,16 +37473,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
